--- a/models/ctmc/polling/properties.xlsx
+++ b/models/ctmc/polling/properties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>property</t>
   </si>
@@ -52,19 +52,30 @@
   </si>
   <si>
     <t>enabled</t>
+  </si>
+  <si>
+    <t>Expected nr. waiting</t>
+  </si>
+  <si>
+    <t>R{"waiting"}=? [ C&lt;=16 ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,19 +383,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -392,7 +406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -403,7 +417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -411,10 +425,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -422,10 +436,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -433,6 +447,17 @@
         <v>5</v>
       </c>
       <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="b">
         <v>1</v>
       </c>
     </row>
